--- a/src/main/resources/static/cif_data/INCIFVIP_20200804_1531.xlsx
+++ b/src/main/resources/static/cif_data/INCIFVIP_20200804_1531.xlsx
@@ -371,8 +371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>12345678910130</v>
+        <v>12345678910111</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -404,7 +404,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>12345678910131</v>
+        <v>12345678910112</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -415,7 +415,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>12345678910132</v>
+        <v>12345678910113</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>12345678910133</v>
+        <v>12345678910114</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>12345678910134</v>
+        <v>12345678910115</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>12345678910135</v>
+        <v>12345678910116</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -459,7 +459,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>12345678910136</v>
+        <v>12345678910117</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>12345678910137</v>
+        <v>12345678910118</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>12345678910138</v>
+        <v>12345678910119</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12345678910139</v>
+        <v>12345678910120</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12345678910140</v>
+        <v>12345678910121</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12345678910141</v>
+        <v>12345678910122</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12345678910142</v>
+        <v>12345678910123</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>12345678910143</v>
+        <v>12345678910124</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>12345678910144</v>
+        <v>12345678910125</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>12345678910145</v>
+        <v>12345678910126</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>12345678910146</v>
+        <v>12345678910127</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>12345678910147</v>
+        <v>12345678910128</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>12345678910148</v>
+        <v>12345678910129</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>12345678910149</v>
+        <v>12345678910130</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
